--- a/listproducts.xlsx
+++ b/listproducts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVOTHINKPADE15\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{878FBAE5-82F2-405B-B47B-79481C0C4171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D42E15F-F9A3-F34B-97DF-D7CAE1D56891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4B3581D-29B4-4220-93CE-439E104FA567}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Quantity</t>
   </si>
@@ -174,14 +174,21 @@
   </si>
   <si>
     <t>https://www.conrad.de/de/p/tru-components-tc-9958912-display-passend-fuer-einplatinen-computer-arduino-raspberry-pi-2489728.html</t>
+  </si>
+  <si>
+    <t>USB Cabel</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/garmin-usb-kabel-usb-2-0-usb-a-stecker-usb-mini-a-stecker-1-00-m-schwarz-010-10723-01-373148.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -227,7 +234,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -238,8 +245,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -257,10 +270,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -562,17 +571,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30255694-E4ED-4BF7-9E9A-D44901DA8A56}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="17.77734375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="2"/>
+    <col min="1" max="4" width="17.75390625" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>39</v>
       </c>
@@ -586,7 +595,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -600,7 +609,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -614,7 +623,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -628,7 +637,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>28</v>
       </c>
@@ -642,7 +651,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -656,7 +665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="108" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -670,7 +679,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="54.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -684,7 +693,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>12</v>
       </c>
@@ -698,7 +707,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>14</v>
       </c>
@@ -712,7 +721,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" ht="108" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -726,7 +735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
@@ -740,7 +749,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
@@ -754,7 +763,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>21</v>
       </c>
@@ -768,7 +777,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>25</v>
       </c>
@@ -782,7 +791,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" ht="41.25" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -796,7 +805,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="158.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="162" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -810,7 +819,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -824,7 +833,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="144" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" ht="148.5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -838,7 +847,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>42</v>
       </c>
@@ -852,7 +861,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>44</v>
       </c>
@@ -866,13 +875,27 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="5">
+        <v>6.49</v>
+      </c>
+      <c r="C22" s="6">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B31" s="4">
-        <f>SUM(B2:B21)</f>
-        <v>394.88000000000011</v>
+        <f>SUM(B2:B22)</f>
+        <v>401.37000000000012</v>
       </c>
     </row>
   </sheetData>
@@ -891,22 +914,14 @@
     <hyperlink ref="D18" r:id="rId12" xr:uid="{2265FAE7-9AD6-4C83-B231-B1D66CBF2839}"/>
     <hyperlink ref="D19" r:id="rId13" xr:uid="{D78E6224-5830-4979-A3DD-9133A0D4F1EC}"/>
     <hyperlink ref="D21" r:id="rId14" xr:uid="{009026BB-D17B-4DE7-BA1B-1F25E1694B3A}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{A5138712-6590-9F43-A958-B57F55984319}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId15"/>
+  <pageSetup orientation="portrait" r:id="rId16"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005DC10B5D8F50B0479259F1A26A253040" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f767455a92e22dc874d66a2eb7f52040">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1030a452-aa74-4240-83be-337438a645d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f40ab5a9a3fa6842ef9102c26c67e70d" ns3:_="">
     <xsd:import namespace="1030a452-aa74-4240-83be-337438a645d4"/>
@@ -1044,6 +1059,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1053,6 +1077,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{181EDBC3-DAFC-4E09-81E2-D866BF5C233C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="1030a452-aa74-4240-83be-337438a645d4"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BF8330B-8751-4DB2-8EF4-77C6587B8B4B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -1060,36 +1096,13 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{181EDBC3-DAFC-4E09-81E2-D866BF5C233C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="1030a452-aa74-4240-83be-337438a645d4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24851452-ECB8-456B-AD7E-91C431DC9076}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
     <ds:schemaRef ds:uri="1030a452-aa74-4240-83be-337438a645d4"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/listproducts.xlsx
+++ b/listproducts.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26516"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVOTHINKPADE15\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tumde-my.sharepoint.com/personal/ilona_bogatinovska_tum_de/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D42E15F-F9A3-F34B-97DF-D7CAE1D56891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91E5561-908C-4A26-967E-588621A592E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{F4B3581D-29B4-4220-93CE-439E104FA567}"/>
   </bookViews>
@@ -38,42 +38,63 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
+    <t>Products</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
     <t>Quantity</t>
   </si>
   <si>
     <t>Link</t>
   </si>
   <si>
+    <t>RFID Tags - High frequency</t>
+  </si>
+  <si>
+    <t>1 (10 in box)</t>
+  </si>
+  <si>
     <t>https://www.conrad.de/de/p/pepperl-fuchs-70113492-rfid-transponder-iqc22-c1-10pcs-10-st-2628907.html</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>RFID Tags - High frequency</t>
-  </si>
-  <si>
-    <t>1 (10 in box)</t>
+    <t>Whadda WPI405 RFID Set 1 St.</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/whadda-wpi405-rfid-set-1-st-2330785.html</t>
+  </si>
+  <si>
+    <t>WAGO 734-328 Strain Relief Plate</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/wago-734-328-zugentlastungsplatte-1-st-737722.html</t>
+  </si>
+  <si>
+    <t>Whadda WPSH211 NFC/RFID Shield for Arduino</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/whadda-wpsh211-nfc-rfid-schild-fuer-arduino-2481969.html</t>
+  </si>
+  <si>
+    <t>RFID Reader</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/quio-qm-201c-hf-chipkartenleser-2568446.html</t>
+  </si>
+  <si>
+    <t>Batteries</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/samsung-icr18650-26-zlf-spezial-akku-18650-z-loetfahne-li-ion-3-7-v-2550-mah-1693221.html</t>
   </si>
   <si>
     <t>Basket</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/p/samsung-icr18650-26-zlf-spezial-akku-18650-z-loetfahne-li-ion-3-7-v-2550-mah-1693221.html</t>
-  </si>
-  <si>
-    <t>Batteries</t>
-  </si>
-  <si>
     <t>https://www.vkf-renzel.de/einkaufskorb-kunststoff-9417.html</t>
   </si>
   <si>
-    <t>RFID Reader</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/quio-qm-201c-hf-chipkartenleser-2568446.html</t>
-  </si>
-  <si>
     <t>Arduino Board Nano Core</t>
   </si>
   <si>
@@ -101,96 +122,74 @@
     <t>Push Button</t>
   </si>
   <si>
+    <t>https://www.conrad.de/de/p/eao-82-6151-1134-drucktaster-gruen-ip65-1-st-2617976.html</t>
+  </si>
+  <si>
     <t>LCD Display</t>
   </si>
   <si>
-    <t>https://www.conrad.de/de/p/eao-82-6151-1134-drucktaster-gruen-ip65-1-st-2617976.html</t>
-  </si>
-  <si>
     <t>https://www.conrad.de/de/p/display-elektronik-lcd-display-gelb-gruen-16-x-2-pixel-b-x-h-x-t-65-5-x-36-7-x-9-6-mm-dem16226syh-ly-2238780.html</t>
   </si>
   <si>
+    <t>Potentiometer</t>
+  </si>
+  <si>
     <t>https://www.conrad.de/de/p/weltron-002045038963-wcip20cips-08-60f1-10k-20-lin-dreh-potentiometer-mit-schalter-mono-0-4-w-10-k-1-st-441143.html</t>
   </si>
   <si>
-    <t>Potentiometer</t>
+    <t>NFC Tag Sticker</t>
+  </si>
+  <si>
+    <t>https://www.kaufland.de/product/453998085/</t>
+  </si>
+  <si>
+    <t>Jumper Cable</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/renkforce-jkmm403-jumper-kabel-arduino-banana-pi-raspberry-pi-40x-drahtbruecken-stecker-40x-drahtbruecken-stecker-30-2299846.html</t>
+  </si>
+  <si>
+    <t>TRU COMPONENTS Schreib- und Lesemodul</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/tru-components-schreib-und-lesemodul-tc-9927144-1-st-2481786.html</t>
+  </si>
+  <si>
+    <t>Bus stripe breadboard</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/tru-components-0165-40-4-28010-steckplatine-bus-stripe-ausklappbar-polzahl-gesamt-400-l-x-b-x-h-86-5-x-64-5-x-8-5-mm-1564793.html</t>
+  </si>
+  <si>
+    <t>Touchscreen-Monitor</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/tru-components-touchscreen-monitor-7-1-cm-2-8-zoll-320-x-240-pixel-inkl-touchpen-2144984.html</t>
+  </si>
+  <si>
+    <t>OLED Display module</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/tru-components-tc-9958912-display-passend-fuer-einplatinen-computer-arduino-raspberry-pi-2489728.html</t>
+  </si>
+  <si>
+    <t>Soldering Iron</t>
+  </si>
+  <si>
+    <t>https://www.conrad.de/de/p/toolcraft-adjustable-starter-set-loetkolben-set-230-v-60-w-bleistiftform-200-450-c-inkl-loetzinn-inkl-loetspitze-i-2207998.html</t>
   </si>
   <si>
     <t>Total amount</t>
-  </si>
-  <si>
-    <t>Whadda WPI405 RFID Set 1 St.</t>
-  </si>
-  <si>
-    <t>Whadda WPSH211 NFC/RFID Shield for Arduino</t>
-  </si>
-  <si>
-    <t>WAGO 734-328 Strain Relief Plate</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/whadda-wpi405-rfid-set-1-st-2330785.html</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/wago-734-328-zugentlastungsplatte-1-st-737722.html</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/whadda-wpsh211-nfc-rfid-schild-fuer-arduino-2481969.html</t>
-  </si>
-  <si>
-    <t>NFC Tag Sticker</t>
-  </si>
-  <si>
-    <t>https://www.kaufland.de/product/453998085/</t>
-  </si>
-  <si>
-    <t>Jumper Cable</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/renkforce-jkmm403-jumper-kabel-arduino-banana-pi-raspberry-pi-40x-drahtbruecken-stecker-40x-drahtbruecken-stecker-30-2299846.html</t>
-  </si>
-  <si>
-    <t>TRU COMPONENTS Schreib- und Lesemodul</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/tru-components-schreib-und-lesemodul-tc-9927144-1-st-2481786.html</t>
-  </si>
-  <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Bus stripe breadboard</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/tru-components-0165-40-4-28010-steckplatine-bus-stripe-ausklappbar-polzahl-gesamt-400-l-x-b-x-h-86-5-x-64-5-x-8-5-mm-1564793.html</t>
-  </si>
-  <si>
-    <t>Touchscreen-Monitor</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/tru-components-touchscreen-monitor-7-1-cm-2-8-zoll-320-x-240-pixel-inkl-touchpen-2144984.html</t>
-  </si>
-  <si>
-    <t>OLED Display module</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/tru-components-tc-9958912-display-passend-fuer-einplatinen-computer-arduino-raspberry-pi-2489728.html</t>
-  </si>
-  <si>
-    <t>USB Cabel</t>
-  </si>
-  <si>
-    <t>https://www.conrad.de/de/p/garmin-usb-kabel-usb-2-0-usb-a-stecker-usb-mini-a-stecker-1-00-m-schwarz-010-10723-01-373148.html</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="169" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,7 +233,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -247,12 +246,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -571,31 +564,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30255694-E4ED-4BF7-9E9A-D44901DA8A56}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45"/>
   <cols>
-    <col min="1" max="4" width="17.75390625" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="2"/>
+    <col min="1" max="4" width="17.7109375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="43.9" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -606,12 +599,12 @@
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="43.9" customHeight="1">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B3" s="4">
         <v>16.989999999999998</v>
@@ -620,12 +613,12 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="43.9" customHeight="1">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="B4" s="4">
         <v>0.6</v>
@@ -634,12 +627,12 @@
         <v>1</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="43.9" customHeight="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="43.9" customHeight="1">
       <c r="A5" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B5" s="4">
         <v>26.99</v>
@@ -648,12 +641,12 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="68.25" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B6" s="4">
         <v>67.989999999999995</v>
@@ -662,12 +655,12 @@
         <v>1</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="100.9">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B7" s="4">
         <v>39.200000000000003</v>
@@ -676,12 +669,12 @@
         <v>5</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="54.75" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="57.6">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8" s="4">
         <v>10.4</v>
@@ -690,12 +683,12 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="86.45">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B9" s="4">
         <v>24.99</v>
@@ -704,12 +697,12 @@
         <v>1</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="100.9">
       <c r="A10" s="2" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="B10" s="4">
         <v>10.47</v>
@@ -718,12 +711,12 @@
         <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="108" x14ac:dyDescent="0.2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="115.15">
       <c r="A11" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B11" s="4">
         <v>10.47</v>
@@ -732,12 +725,12 @@
         <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="81" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="72">
       <c r="A12" s="2" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B12" s="4">
         <v>4.58</v>
@@ -746,12 +739,12 @@
         <v>2</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="86.45">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B13" s="4">
         <v>24.99</v>
@@ -760,12 +753,12 @@
         <v>1</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="115.15">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B14" s="4">
         <v>13.99</v>
@@ -774,12 +767,12 @@
         <v>1</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="148.5" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="129.6">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="B15" s="4">
         <v>4.49</v>
@@ -788,10 +781,10 @@
         <v>1</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="41.25" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="43.15">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -805,7 +798,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="162" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="158.44999999999999">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -819,7 +812,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="94.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" ht="86.45">
       <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
@@ -833,9 +826,9 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="148.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" ht="144">
       <c r="A19" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19" s="4">
         <v>5.49</v>
@@ -844,12 +837,12 @@
         <v>1</v>
       </c>
       <c r="D19" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="28.9">
+      <c r="A20" s="2" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A20" s="2" t="s">
-        <v>42</v>
       </c>
       <c r="B20" s="4">
         <v>26.99</v>
@@ -858,12 +851,12 @@
         <v>1</v>
       </c>
       <c r="D20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="129.6">
+      <c r="A21" s="2" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="121.5" x14ac:dyDescent="0.2">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
       </c>
       <c r="B21" s="4">
         <v>13.99</v>
@@ -872,30 +865,33 @@
         <v>1</v>
       </c>
       <c r="D21" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="152.25">
+      <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="108" x14ac:dyDescent="0.2">
-      <c r="A22" s="6" t="s">
+      <c r="B22" s="4">
+        <v>39.99</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="5">
-        <v>6.49</v>
-      </c>
-      <c r="C22" s="6">
-        <v>1</v>
-      </c>
-      <c r="D22" s="3" t="s">
+    </row>
+    <row r="23" spans="1:4" ht="15">
+      <c r="B23" s="4"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="B31" s="4">
-        <f>SUM(B2:B22)</f>
-        <v>401.37000000000012</v>
+        <f>SUM(B2:B30)</f>
+        <v>434.87000000000012</v>
       </c>
     </row>
   </sheetData>
@@ -914,7 +910,7 @@
     <hyperlink ref="D18" r:id="rId12" xr:uid="{2265FAE7-9AD6-4C83-B231-B1D66CBF2839}"/>
     <hyperlink ref="D19" r:id="rId13" xr:uid="{D78E6224-5830-4979-A3DD-9133A0D4F1EC}"/>
     <hyperlink ref="D21" r:id="rId14" xr:uid="{009026BB-D17B-4DE7-BA1B-1F25E1694B3A}"/>
-    <hyperlink ref="D22" r:id="rId15" xr:uid="{A5138712-6590-9F43-A958-B57F55984319}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{88555EAB-4050-45F5-AFC0-5FAD3DE87779}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
@@ -922,6 +918,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="1030a452-aa74-4240-83be-337438a645d4" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x0101005DC10B5D8F50B0479259F1A26A253040" ma:contentTypeVersion="3" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="f767455a92e22dc874d66a2eb7f52040">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1030a452-aa74-4240-83be-337438a645d4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="f40ab5a9a3fa6842ef9102c26c67e70d" ns3:_="">
     <xsd:import namespace="1030a452-aa74-4240-83be-337438a645d4"/>
@@ -1059,7 +1063,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1068,41 +1072,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="1030a452-aa74-4240-83be-337438a645d4" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{181EDBC3-DAFC-4E09-81E2-D866BF5C233C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="1030a452-aa74-4240-83be-337438a645d4"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24851452-ECB8-456B-AD7E-91C431DC9076}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BF8330B-8751-4DB2-8EF4-77C6587B8B4B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{181EDBC3-DAFC-4E09-81E2-D866BF5C233C}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{24851452-ECB8-456B-AD7E-91C431DC9076}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2000/xmlns/"/>
-    <ds:schemaRef ds:uri="1030a452-aa74-4240-83be-337438a645d4"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema-instance"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BF8330B-8751-4DB2-8EF4-77C6587B8B4B}"/>
 </file>